--- a/Files/Station Standard.xlsx
+++ b/Files/Station Standard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dartgrp-my.sharepoint.com/personal/andrew_walker16_jet2_com/Documents/Refill Station Performance Report/Report/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dartgrp.sharepoint.com/sites/RetailOperationsCentre/Shared Documents/IT/Refill Station Performance Report/Report/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{3933326F-ABBF-40CC-A196-9F5719B86B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BC364A-C1D8-4946-9855-D05D8DC177C4}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{3933326F-ABBF-40CC-A196-9F5719B86B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B31E15-7E54-4733-9836-6191FCE57AD1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1785" windowWidth="29040" windowHeight="15840" xr2:uid="{25D73C4F-F6DB-43C2-8841-0B8ACB764096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25D73C4F-F6DB-43C2-8841-0B8ACB764096}"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,11 +652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFD11CB-5C73-45DC-A582-2F7B6584AFFE}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -665,7 +665,7 @@
     <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -705,7 +705,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -745,7 +745,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -806,7 +806,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -826,7 +826,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -907,7 +907,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -927,7 +927,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -947,7 +947,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -967,7 +967,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -987,7 +987,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1047,49 +1047,47 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1331,47 +1329,47 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -1551,7 +1549,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -1571,47 +1569,47 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -1695,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
@@ -1793,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -1829,6 +1827,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5A72D61E6FB7E499BBDE2BA8506F635" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="122fb3504961841db07f0085e7c2e299">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c401241-d227-482e-ba39-0d0baf0434c9" xmlns:ns3="149aa6d0-54e2-4b46-8087-12a6bb91cc12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c58f74d314861ee8c30a790f614c210" ns2:_="" ns3:_="">
     <xsd:import namespace="4c401241-d227-482e-ba39-0d0baf0434c9"/>
@@ -2063,19 +2070,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDB132E-386F-41AA-8D74-C57DFCFF7053}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F559140-FA80-4798-B1D6-A384996D8CCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F559140-FA80-4798-B1D6-A384996D8CCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDB132E-386F-41AA-8D74-C57DFCFF7053}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4c401241-d227-482e-ba39-0d0baf0434c9"/>
+    <ds:schemaRef ds:uri="149aa6d0-54e2-4b46-8087-12a6bb91cc12"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Files/Station Standard.xlsx
+++ b/Files/Station Standard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dartgrp.sharepoint.com/sites/RetailOperationsCentre/Shared Documents/IT/Refill Station Performance Report/Report/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{3933326F-ABBF-40CC-A196-9F5719B86B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B31E15-7E54-4733-9836-6191FCE57AD1}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{3933326F-ABBF-40CC-A196-9F5719B86B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02A55B42-2D3A-4218-86D5-17240CB2D2C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25D73C4F-F6DB-43C2-8841-0B8ACB764096}"/>
   </bookViews>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFD11CB-5C73-45DC-A582-2F7B6584AFFE}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1058,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3">
         <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,19 +1172,19 @@
         <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,19 +1334,19 @@
         <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,17 +1827,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5A72D61E6FB7E499BBDE2BA8506F635" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="122fb3504961841db07f0085e7c2e299">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c401241-d227-482e-ba39-0d0baf0434c9" xmlns:ns3="149aa6d0-54e2-4b46-8087-12a6bb91cc12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c58f74d314861ee8c30a790f614c210" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5A72D61E6FB7E499BBDE2BA8506F635" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e78f848e9a95e9b19500950754fff8f5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c401241-d227-482e-ba39-0d0baf0434c9" xmlns:ns3="149aa6d0-54e2-4b46-8087-12a6bb91cc12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0293b6afe18b356d5c98ed746ac6ed19" ns2:_="" ns3:_="">
     <xsd:import namespace="4c401241-d227-482e-ba39-0d0baf0434c9"/>
     <xsd:import namespace="149aa6d0-54e2-4b46-8087-12a6bb91cc12"/>
     <xsd:element name="properties">
@@ -1860,6 +1851,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1970,6 +1962,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -2070,16 +2067,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F559140-FA80-4798-B1D6-A384996D8CCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DDB132E-386F-41AA-8D74-C57DFCFF7053}">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c401241-d227-482e-ba39-0d0baf0434c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="149aa6d0-54e2-4b46-8087-12a6bb91cc12">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E7E62B-DD55-4268-BA03-32879C99BF1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2095,4 +2104,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F559140-FA80-4798-B1D6-A384996D8CCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF6AA3F1-4E68-4403-930D-0F7DC49224E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c401241-d227-482e-ba39-0d0baf0434c9"/>
+    <ds:schemaRef ds:uri="149aa6d0-54e2-4b46-8087-12a6bb91cc12"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>